--- a/data/output/FV2304_FV2210/UTILMD/11139.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11139.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8034" uniqueCount="514">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="514">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1683,6 +1683,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U367" totalsRowShown="0">
+  <autoFilter ref="A1:U367"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1972,7 +2002,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18980,5 +19013,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11139.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11139.xlsx
@@ -3177,7 +3177,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5667,7 +5667,7 @@
         <v>477</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5819,7 +5819,7 @@
         <v>477</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6199,7 +6199,7 @@
         <v>479</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6397,7 +6397,7 @@
         <v>482</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6601,7 +6601,7 @@
         <v>479</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6859,7 +6859,7 @@
         <v>483</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -7063,7 +7063,7 @@
         <v>479</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7265,7 +7265,7 @@
         <v>484</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7795,7 +7795,7 @@
         <v>479</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7935,7 +7935,7 @@
         <v>485</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8085,7 +8085,7 @@
         <v>486</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8341,7 +8341,7 @@
         <v>482</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -8529,7 +8529,7 @@
         <v>486</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8817,7 +8817,7 @@
         <v>486</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -9215,7 +9215,7 @@
         <v>488</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9425,7 +9425,7 @@
         <v>482</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9767,7 +9767,7 @@
         <v>485</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10505,7 +10505,7 @@
         <v>491</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11261,7 +11261,7 @@
         <v>485</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11469,7 +11469,7 @@
         <v>493</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11675,7 +11675,7 @@
         <v>494</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11963,7 +11963,7 @@
         <v>494</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -12263,7 +12263,7 @@
         <v>495</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12755,7 +12755,7 @@
         <v>497</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -13151,7 +13151,7 @@
         <v>498</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -14033,7 +14033,7 @@
         <v>499</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14241,7 +14241,7 @@
         <v>500</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14447,7 +14447,7 @@
         <v>501</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14587,7 +14587,7 @@
         <v>502</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -14793,7 +14793,7 @@
         <v>503</v>
       </c>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15847,7 +15847,7 @@
         <v>503</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -15985,7 +15985,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16373,7 +16373,7 @@
         <v>503</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -16753,7 +16753,7 @@
         <v>507</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17041,7 +17041,7 @@
         <v>508</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17329,7 +17329,7 @@
         <v>509</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -17467,7 +17467,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -17619,7 +17619,7 @@
         <v>511</v>
       </c>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -17767,7 +17767,7 @@
         <v>479</v>
       </c>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -17905,7 +17905,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -18159,7 +18159,7 @@
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -18305,7 +18305,7 @@
         <v>482</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18593,7 +18593,7 @@
         <v>512</v>
       </c>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19039,7 +19039,7 @@
         <v>512</v>
       </c>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="K334" s="2"/>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -19689,7 +19689,7 @@
         <v>512</v>
       </c>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -20189,7 +20189,7 @@
         <v>512</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -20689,7 +20689,7 @@
         <v>479</v>
       </c>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -21079,7 +21079,7 @@
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N365" s="2"/>
